--- a/public/files/rawSeeder.xlsx
+++ b/public/files/rawSeeder.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PARTISIPAOnlineSystem\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA03D5FB-3732-4848-A444-9C1C1C0452EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF30965-8FFD-4AD1-A42B-1CBA3ECDE05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA20B722-E4F3-416D-82D7-94094DD41CF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CA20B722-E4F3-416D-82D7-94094DD41CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
-    <sheet name="Projects" sheetId="2" r:id="rId2"/>
-    <sheet name="ProjectActivity" sheetId="8" r:id="rId3"/>
-    <sheet name="Monitoring" sheetId="3" r:id="rId4"/>
-    <sheet name="Programs" sheetId="4" r:id="rId5"/>
-    <sheet name="Municipals" sheetId="5" r:id="rId6"/>
-    <sheet name="Postos" sheetId="6" r:id="rId7"/>
-    <sheet name="Suco" sheetId="7" r:id="rId8"/>
+    <sheet name="nationalities" sheetId="9" r:id="rId2"/>
+    <sheet name="genders" sheetId="10" r:id="rId3"/>
+    <sheet name="Projects" sheetId="2" r:id="rId4"/>
+    <sheet name="ProjectActivity" sheetId="8" r:id="rId5"/>
+    <sheet name="Monitoring" sheetId="3" r:id="rId6"/>
+    <sheet name="Programs" sheetId="4" r:id="rId7"/>
+    <sheet name="Municipals" sheetId="5" r:id="rId8"/>
+    <sheet name="Postos" sheetId="6" r:id="rId9"/>
+    <sheet name="Suco" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="728">
   <si>
     <t>capacity_required</t>
   </si>
@@ -2185,6 +2187,45 @@
   </si>
   <si>
     <t>ProjectActivity::create(['name'=&gt;'</t>
+  </si>
+  <si>
+    <t>Nationality::create(['name'=&gt;'</t>
+  </si>
+  <si>
+    <t>Timor Leste</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Gender::create(['abbr'=&gt;'</t>
   </si>
 </sst>
 </file>
@@ -2542,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5131193D-9F27-4004-9604-78C6B672D106}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+    <sheetView topLeftCell="M2" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P79"/>
     </sheetView>
   </sheetViews>
@@ -6573,2847 +6614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD531C-D613-4E9C-82E7-11AEA8DFCB47}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2:C2)</f>
-        <v>Project::create(['name'=&gt;'Bareiras (Tembok Penahan Tanah)']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D43" si="0">_xlfn.CONCAT(A3:C3)</f>
-        <v>Project::create(['name'=&gt;'Bee Kanu (Sekundaria/kanu distribuisaun)']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Drenazen']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Eskada Betaun - Eskada Passeio']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Eskola Infantil']);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Eskola Pre-Secondaria']);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Eskola Primaria']);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Eskola Secondaria']);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Estrada Betaun']);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Estrada Britas']);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Estrada Rai']);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Estrada Telford']);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Fasilidade Lavandaria Publiku']);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Fasilidade Saneamentu Publiku(MCK)']);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Fatin Lixu Publiku']);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Galeria Estrada ((Pipe Culvert/Box Culvert)']);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Klinika - Maternidade']);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Klinika - Postu Saude']);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Klinika - Sentru Saude Komunitario']);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Labarik nia Fatin Halimar iha Eskola']);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Mini Merkadu']);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Moru ba Eskola']);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Moru ba Klinika']);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Painel Solar']);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Pasadera']);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Plat Deker']);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Ponte - Ai']);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Ponte - Betaun']);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Portu Peska']);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Rampa ba Fasilidade Publiku']);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Residensia ba Professores']);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Residensia Pessoal Saude']);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Satan Rai (Bronjong)']);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Sintina Publiku']);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Sistema Bee Mos - Gravitasaun']);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Sistema Bee Mos - Bomba']);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Trotoar / Passeio']);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Sala ou Dapur Merenda Eskolar']);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Uma OPS']);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Fatin Halimar']);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Not Defined']);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>Project::create(['name'=&gt;'Seluk....']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586D0AEB-B96C-41DE-94F7-CB0E4F0FCC94}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2:C2)</f>
-        <v>ProjectActivity::create(['name'=&gt;'Extensaun']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>714</v>
-      </c>
-      <c r="B3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT(A3:C3)</f>
-        <v>ProjectActivity::create(['name'=&gt;'Fornese (Suplai)']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>714</v>
-      </c>
-      <c r="B4" t="s">
-        <v>711</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>ProjectActivity::create(['name'=&gt;'Instalasaun']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B5" t="s">
-        <v>712</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>ProjectActivity::create(['name'=&gt;'Konstrusaun']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>714</v>
-      </c>
-      <c r="B6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>ProjectActivity::create(['name'=&gt;'Reabilitasaun']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F6ABE-BCA4-474C-83CA-767CBAA64C5A}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2:C2)</f>
-        <v>MonitoringTool::create(['name'=&gt;'GFM 4 - Monitorizasaun Jestaun Finansas']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(A3:C3)</f>
-        <v>MonitoringTool::create(['name'=&gt;'Formatu Monitorizasaun Enkontru Municipiu']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'SF - Monitorizasaun Enkontru Akunta']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'Formatu Monitorizasaun Enkontru Set']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.1 - Edifisiu (gedung)']);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.2 - Ponte']);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.3 - Estrada']);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.4 - Irigasaun']);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.5 - Drenazen']);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.6 - Bee Mos &amp; Saneamentu']);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.7 - Galeria (culvert)']);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.8 - Bareiras']);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF 11.2.2 – Folla Inspesaun Final']);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'SF4.7-CAM']);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'TF9.3.10 - Formatu Inspesaun ba Fatin Halimar']);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>MonitoringTool::create(['name'=&gt;'Not Defined']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D79236-2204-4977-9E03-22AE685904C0}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" customWidth="1"/>
-    <col min="8" max="8" width="122.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" t="str">
-        <f>_xlfn.CONCAT(A2:G2)</f>
-        <v>Program::create(['name'=&gt;'Programa Nasional Desenvolvimentu Suku','alias'=&gt;'PNDS','description'=&gt;'National Program for Village Development']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H6" si="0">_xlfn.CONCAT(A3:G3)</f>
-        <v>Program::create(['name'=&gt;'Uma Policia OPS','alias'=&gt;'Uma OPS','description'=&gt;'Suco Police Housing']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>Program::create(['name'=&gt;'Fatin Halimar','alias'=&gt;'FH','description'=&gt;'Playground for kids']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>Program::create(['name'=&gt;'Konstrusaun Infraestrutura Educativo','alias'=&gt;'KIE','description'=&gt;'Konstrusction for Educational Infrastructure']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>Program::create(['name'=&gt;'Parseria Hametin Dezenvolvimentu Suku','alias'=&gt;'PARTISIPA','description'=&gt;'Partnership for Sub National Development']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B963D-9FDC-42DD-B33C-9553FC943934}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT(A2:C2)</f>
-        <v>Municipal::create(['name'=&gt;'Aileu']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3:C3)</f>
-        <v>Municipal::create(['name'=&gt;'Ainaro']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Baucau']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Bobonaro']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Covalima']);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Dili']);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Ermera']);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Lautem']);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Liquica']);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Manatuto']);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Manufahi']);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Oecussi']);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Viqueque']);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Municipal::create(['name'=&gt;'Nacional']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40899937-9159-4309-B5D3-0360E02B171B}">
-  <dimension ref="A1:F67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT(A2:E2)</f>
-        <v>Posto::create(['municipal_id'=&gt;'0','name'=&gt;'Not Applicable']);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(A3:E3)</f>
-        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Aileu_Vila']);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Laulara']);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Liquidoe']);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Remexio']);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Ainaro_Vila']);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Hatu_Builico']);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Hatu_Udo']);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Maubisse']);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Baguia']);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Baucau_Vila']);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Laga']);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Quelicai']);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Vemase']);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Venilale']);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Atabae']);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Balibo']);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Bobonaro_Vila']);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Cailaco']);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Lolotoe']);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Maliana']);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fatululik']);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fatumea']);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fohoren']);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Maucatar']);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Suai']);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Tilomar']);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Zumalai']);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Atauro']);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Cristo_Rei']);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Dom_Aleixo']);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Metinaro']);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Nain_Feto']);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Vera_Cruz']);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Atsabe']);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>261</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Ermera_Vila']);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>261</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Hatolia']);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Letefoho']);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Railaco']);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Iliomar']);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Lautem_Vila']);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Lospalos']);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" t="s">
-        <v>237</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Luro']);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" t="s">
-        <v>238</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Tutuala']);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Bazartete']);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D47" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Liquica']);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Maubara']);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Barique_Natarbora']);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" t="s">
-        <v>242</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laclo']);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laclubar']);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>261</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laleia']);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>261</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Manatuto_Vila']);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D54" t="s">
-        <v>246</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Soibada']);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>261</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" t="s">
-        <v>247</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Alas']);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D56" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Fatuberliu']);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Same']);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D58" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Turiscai']);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D59" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Nitibe']);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" t="s">
-        <v>252</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Oesilo']);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Pante_Macasar']);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Passabe']);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B63">
-        <v>13</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D63" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Lacluta']);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>261</v>
-      </c>
-      <c r="B64">
-        <v>13</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D64" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Ossu']);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65">
-        <v>13</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" t="s">
-        <v>257</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Uato_Carbau']);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>261</v>
-      </c>
-      <c r="B66">
-        <v>13</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" t="s">
-        <v>258</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Uato_Lari']);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>261</v>
-      </c>
-      <c r="B67">
-        <v>13</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" t="s">
-        <v>259</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" ref="F67" si="1">_xlfn.CONCAT(A67:E67)</f>
-        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Viqueque_Vila']);</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33122C94-9599-440F-BF7C-30519C5DC5F8}">
   <dimension ref="A1:L454"/>
   <sheetViews>
@@ -27124,4 +24325,3041 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B8440D-2124-4710-9A14-08198B710A0F}">
+  <dimension ref="A2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>Nationality::create(['name'=&gt;'Australia']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D9" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>Nationality::create(['name'=&gt;'Belgium']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'Germany']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'Indonesia']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'Italia']);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'Timor Leste']);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'United Kingdom']);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nationality::create(['name'=&gt;'United States']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B9">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C667D1-56BB-4FDC-B21E-C17B77100CED}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD531C-D613-4E9C-82E7-11AEA8DFCB47}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>Project::create(['name'=&gt;'Bareiras (Tembok Penahan Tanah)']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D43" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>Project::create(['name'=&gt;'Bee Kanu (Sekundaria/kanu distribuisaun)']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Drenazen']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Eskada Betaun - Eskada Passeio']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Eskola Infantil']);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Eskola Pre-Secondaria']);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Eskola Primaria']);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Eskola Secondaria']);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Estrada Betaun']);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Estrada Britas']);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Estrada Rai']);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Estrada Telford']);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Fasilidade Lavandaria Publiku']);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Fasilidade Saneamentu Publiku(MCK)']);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Fatin Lixu Publiku']);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Galeria Estrada ((Pipe Culvert/Box Culvert)']);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Klinika - Maternidade']);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Klinika - Postu Saude']);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Klinika - Sentru Saude Komunitario']);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Labarik nia Fatin Halimar iha Eskola']);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Mini Merkadu']);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Moru ba Eskola']);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Moru ba Klinika']);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Painel Solar']);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Pasadera']);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Plat Deker']);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Ponte - Ai']);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Ponte - Betaun']);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Portu Peska']);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Rampa ba Fasilidade Publiku']);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Residensia ba Professores']);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Residensia Pessoal Saude']);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Satan Rai (Bronjong)']);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Sintina Publiku']);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Sistema Bee Mos - Gravitasaun']);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Sistema Bee Mos - Bomba']);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Trotoar / Passeio']);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Sala ou Dapur Merenda Eskolar']);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Uma OPS']);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Fatin Halimar']);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Not Defined']);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Project::create(['name'=&gt;'Seluk....']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586D0AEB-B96C-41DE-94F7-CB0E4F0FCC94}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>ProjectActivity::create(['name'=&gt;'Extensaun']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>ProjectActivity::create(['name'=&gt;'Fornese (Suplai)']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ProjectActivity::create(['name'=&gt;'Instalasaun']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ProjectActivity::create(['name'=&gt;'Konstrusaun']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ProjectActivity::create(['name'=&gt;'Reabilitasaun']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F6ABE-BCA4-474C-83CA-767CBAA64C5A}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>MonitoringTool::create(['name'=&gt;'GFM 4 - Monitorizasaun Jestaun Finansas']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D17" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>MonitoringTool::create(['name'=&gt;'Formatu Monitorizasaun Enkontru Municipiu']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'SF - Monitorizasaun Enkontru Akunta']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'Formatu Monitorizasaun Enkontru Set']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.1 - Edifisiu (gedung)']);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.2 - Ponte']);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.3 - Estrada']);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.4 - Irigasaun']);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.5 - Drenazen']);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.6 - Bee Mos &amp; Saneamentu']);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.7 - Galeria (culvert)']);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.8 - Bareiras']);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF 11.2.2 – Folla Inspesaun Final']);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'SF4.7-CAM']);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'TF9.3.10 - Formatu Inspesaun ba Fatin Halimar']);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>MonitoringTool::create(['name'=&gt;'Not Defined']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D79236-2204-4977-9E03-22AE685904C0}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" customWidth="1"/>
+    <col min="8" max="8" width="122.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT(A2:G2)</f>
+        <v>Program::create(['name'=&gt;'Programa Nasional Desenvolvimentu Suku','alias'=&gt;'PNDS','description'=&gt;'National Program for Village Development']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H6" si="0">_xlfn.CONCAT(A3:G3)</f>
+        <v>Program::create(['name'=&gt;'Uma Policia OPS','alias'=&gt;'Uma OPS','description'=&gt;'Suco Police Housing']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Program::create(['name'=&gt;'Fatin Halimar','alias'=&gt;'FH','description'=&gt;'Playground for kids']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Program::create(['name'=&gt;'Konstrusaun Infraestrutura Educativo','alias'=&gt;'KIE','description'=&gt;'Konstrusction for Educational Infrastructure']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Program::create(['name'=&gt;'Parseria Hametin Dezenvolvimentu Suku','alias'=&gt;'PARTISIPA','description'=&gt;'Partnership for Sub National Development']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B963D-9FDC-42DD-B33C-9553FC943934}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>Municipal::create(['name'=&gt;'Aileu']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D15" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>Municipal::create(['name'=&gt;'Ainaro']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Baucau']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Bobonaro']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Covalima']);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Dili']);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Ermera']);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Lautem']);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Liquica']);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Manatuto']);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Manufahi']);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Oecussi']);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Viqueque']);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Municipal::create(['name'=&gt;'Nacional']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40899937-9159-4309-B5D3-0360E02B171B}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(A2:E2)</f>
+        <v>Posto::create(['municipal_id'=&gt;'0','name'=&gt;'Not Applicable']);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(A3:E3)</f>
+        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Aileu_Vila']);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Laulara']);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Liquidoe']);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'1','name'=&gt;'Remexio']);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Ainaro_Vila']);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Hatu_Builico']);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Hatu_Udo']);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'2','name'=&gt;'Maubisse']);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Baguia']);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Baucau_Vila']);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Laga']);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Quelicai']);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Vemase']);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'3','name'=&gt;'Venilale']);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Atabae']);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Balibo']);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Bobonaro_Vila']);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Cailaco']);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Lolotoe']);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'4','name'=&gt;'Maliana']);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fatululik']);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fatumea']);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Fohoren']);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Maucatar']);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Suai']);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Tilomar']);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'5','name'=&gt;'Zumalai']);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Atauro']);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Cristo_Rei']);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Dom_Aleixo']);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Metinaro']);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Nain_Feto']);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'6','name'=&gt;'Vera_Cruz']);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Atsabe']);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Ermera_Vila']);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Hatolia']);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Letefoho']);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'7','name'=&gt;'Railaco']);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Iliomar']);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Lautem_Vila']);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Lospalos']);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Luro']);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'8','name'=&gt;'Tutuala']);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Bazartete']);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Liquica']);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'9','name'=&gt;'Maubara']);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Barique_Natarbora']);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laclo']);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laclubar']);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Laleia']);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Manatuto_Vila']);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'10','name'=&gt;'Soibada']);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Alas']);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Fatuberliu']);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Same']);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'11','name'=&gt;'Turiscai']);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Nitibe']);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Oesilo']);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Pante_Macasar']);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'12','name'=&gt;'Passabe']);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Lacluta']);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Ossu']);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Uato_Carbau']);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Uato_Lari']);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67" si="1">_xlfn.CONCAT(A67:E67)</f>
+        <v>Posto::create(['municipal_id'=&gt;'13','name'=&gt;'Viqueque_Vila']);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>